--- a/irecodes-master/leak_demand_t8.xlsx
+++ b/irecodes-master/leak_demand_t8.xlsx
@@ -756,85 +756,85 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.002464491337862863</v>
+        <v>0.00162255634881018</v>
       </c>
       <c r="Y2">
-        <v>0.002464490978986088</v>
+        <v>0.0016225563472304</v>
       </c>
       <c r="Z2">
-        <v>0.00246449147741849</v>
+        <v>0.001622556349308644</v>
       </c>
       <c r="AA2">
-        <v>0.002464492555720716</v>
+        <v>0.001622556353658002</v>
       </c>
       <c r="AB2">
-        <v>0.002464492592346258</v>
+        <v>0.001622556353659367</v>
       </c>
       <c r="AC2">
-        <v>0.002464493740384062</v>
+        <v>0.001622556358038069</v>
       </c>
       <c r="AD2">
-        <v>0.002464493645522846</v>
+        <v>0.001622556357575353</v>
       </c>
       <c r="AE2">
-        <v>0.002464492056883326</v>
+        <v>0.001622556351539504</v>
       </c>
       <c r="AF2">
-        <v>0.002464492114288603</v>
+        <v>0.001622556351838605</v>
       </c>
       <c r="AG2">
-        <v>0.002464490773614406</v>
+        <v>0.001622556346594001</v>
       </c>
       <c r="AH2">
-        <v>0.00246449073925916</v>
+        <v>0.001622556346415377</v>
       </c>
       <c r="AI2">
-        <v>0.002464490456918776</v>
+        <v>0.00162255634521768</v>
       </c>
       <c r="AJ2">
-        <v>0.002464491043994035</v>
+        <v>0.001622556347505651</v>
       </c>
       <c r="AK2">
-        <v>0.002464490612265695</v>
+        <v>0.001622556345516715</v>
       </c>
       <c r="AL2">
-        <v>0.002464491497994335</v>
+        <v>0.001622556349309495</v>
       </c>
       <c r="AM2">
-        <v>0.002464490902396557</v>
+        <v>0.001622556346096486</v>
       </c>
       <c r="AN2">
-        <v>0.002464490567920113</v>
+        <v>0.001622556345514394</v>
       </c>
       <c r="AO2">
-        <v>0.00246449070360017</v>
+        <v>0.00162255634621386</v>
       </c>
       <c r="AP2">
-        <v>0.002464490442086134</v>
+        <v>0.001622556345132318</v>
       </c>
       <c r="AQ2">
-        <v>0.002464490360581578</v>
+        <v>0.001622556344699988</v>
       </c>
       <c r="AR2">
-        <v>0.002464490183621666</v>
+        <v>0.001622556343814811</v>
       </c>
       <c r="AS2">
-        <v>0.00246449038321618</v>
+        <v>0.001622556344206947</v>
       </c>
       <c r="AT2">
-        <v>0.002464490350688675</v>
+        <v>0.001622556343554051</v>
       </c>
       <c r="AU2">
-        <v>0.002464490291776859</v>
+        <v>0.001622556343453397</v>
       </c>
       <c r="AV2">
-        <v>0.002464490272689264</v>
+        <v>0.001622556343925265</v>
       </c>
       <c r="AW2">
-        <v>0.002464490293926958</v>
+        <v>0.001622556344308436</v>
       </c>
       <c r="AX2">
-        <v>0.00246449015392317</v>
+        <v>0.001622556343606994</v>
       </c>
       <c r="AY2">
         <v>0</v>
